--- a/WEBSITE DATA/NAMES.xlsx
+++ b/WEBSITE DATA/NAMES.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\teamproject-12\WEBSITE DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{194376AC-6459-4655-A869-81E1770F6E11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{748DD34A-42E9-4E06-A519-B0D743487779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="23040" windowHeight="8484" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>PRODUCTS</t>
   </si>
@@ -426,8 +426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="69" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -557,6 +557,18 @@
       <c r="D6" t="s">
         <v>24</v>
       </c>
+      <c r="E6">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
